--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3390869.297270378</v>
+        <v>3390482.586868578</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644344</v>
+        <v>247834.3978644342</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>249.5668530371391</v>
+        <v>298.3583182544166</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -722,7 +722,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>49.98440785221172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>128.4064469347042</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.79123926981575</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0542834452966</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>223.5682604335352</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
@@ -987,10 +987,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.893369583877355</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>198.2911480673789</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.2101393986432</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>288.4569775094188</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,10 +1218,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>43.01200336644001</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>66.92963568814491</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.721603606792</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.6588612950832</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>138.9063174149371</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
-        <v>144.1457961766845</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X11" t="n">
         <v>264.7796735655128</v>
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>125.5693077588076</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1515,7 +1515,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>162.0956547611913</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1610,19 +1610,19 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>46.15072324573725</v>
       </c>
       <c r="H14" t="n">
-        <v>205.4797739680072</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
         <v>245.4794153327662</v>
@@ -1673,7 +1673,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043521871</v>
       </c>
       <c r="H15" t="n">
-        <v>78.95005679387901</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C17" t="n">
         <v>207.1105963876487</v>
       </c>
       <c r="D17" t="n">
-        <v>198.0919004321766</v>
+        <v>198.0919004321767</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F17" t="n">
-        <v>239.0058540900593</v>
+        <v>239.0058540900594</v>
       </c>
       <c r="G17" t="n">
         <v>240.9391219874819</v>
       </c>
       <c r="H17" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042082337</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307754</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T17" t="n">
-        <v>51.1115321134269</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027386</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V17" t="n">
-        <v>162.605656670146</v>
+        <v>162.6056566701461</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481029</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X17" t="n">
         <v>207.2060143808496</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>45.65997552789477</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1971,7 +1971,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
-        <v>63.58460757565749</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466399</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747728</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960592</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428958</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070596</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677364</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C20" t="n">
         <v>207.1105963876487</v>
       </c>
       <c r="D20" t="n">
-        <v>198.0919004321766</v>
+        <v>198.0919004321767</v>
       </c>
       <c r="E20" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F20" t="n">
-        <v>239.0058540900593</v>
+        <v>239.0058540900594</v>
       </c>
       <c r="G20" t="n">
         <v>240.9391219874819</v>
       </c>
       <c r="H20" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08520211041991388</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.35286092307754</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T20" t="n">
-        <v>51.1115321134269</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U20" t="n">
-        <v>81.33265823027386</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V20" t="n">
-        <v>162.605656670146</v>
+        <v>162.6056566701461</v>
       </c>
       <c r="W20" t="n">
-        <v>187.9057561481029</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X20" t="n">
         <v>207.2060143808496</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>117.4618285547997</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2178,7 +2178,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>122.7710337916609</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.71599030466399</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>40.56884027747728</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T22" t="n">
-        <v>59.84333895960592</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U22" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V22" t="n">
-        <v>87.12412670428958</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W22" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X22" t="n">
-        <v>57.93611477070596</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81098252677364</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219.0992794299669</v>
+        <v>219.099279429967</v>
       </c>
       <c r="C23" t="n">
         <v>207.1105963876487</v>
       </c>
       <c r="D23" t="n">
-        <v>198.0919004321766</v>
+        <v>198.0919004321767</v>
       </c>
       <c r="E23" t="n">
-        <v>219.8340380020822</v>
+        <v>219.8340380020823</v>
       </c>
       <c r="F23" t="n">
-        <v>239.0058540900593</v>
+        <v>239.0058540900594</v>
       </c>
       <c r="G23" t="n">
         <v>240.9391219874819</v>
       </c>
       <c r="H23" t="n">
-        <v>158.4892369657918</v>
+        <v>158.4892369657919</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08520211041991388</v>
+        <v>0.08520211041999914</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.35286092307754</v>
+        <v>14.35286092307763</v>
       </c>
       <c r="T23" t="n">
-        <v>51.1115321134269</v>
+        <v>51.11153211342699</v>
       </c>
       <c r="U23" t="n">
-        <v>81.33265823027386</v>
+        <v>81.33265823027395</v>
       </c>
       <c r="V23" t="n">
-        <v>162.605656670146</v>
+        <v>162.6056566701461</v>
       </c>
       <c r="W23" t="n">
-        <v>187.9057561481029</v>
+        <v>187.905756148103</v>
       </c>
       <c r="X23" t="n">
         <v>207.2060143808496</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.6026121770483</v>
+        <v>218.6026121770484</v>
       </c>
     </row>
     <row r="24">
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>11.25159433703895</v>
+        <v>11.25159433704029</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.71599030466399</v>
+        <v>10.71599030466407</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.56884027747728</v>
+        <v>40.56884027747736</v>
       </c>
       <c r="T25" t="n">
-        <v>59.84333895960592</v>
+        <v>59.843338959606</v>
       </c>
       <c r="U25" t="n">
-        <v>113.3145124229191</v>
+        <v>113.3145124229192</v>
       </c>
       <c r="V25" t="n">
-        <v>87.12412670428958</v>
+        <v>87.12412670428967</v>
       </c>
       <c r="W25" t="n">
-        <v>112.2910127749028</v>
+        <v>112.2910127749029</v>
       </c>
       <c r="X25" t="n">
-        <v>57.93611477070596</v>
+        <v>57.93611477070604</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81098252677364</v>
+        <v>48.81098252677373</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>196.4050411479438</v>
       </c>
       <c r="H26" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>57.65886129508321</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.93215529479578</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
@@ -2621,7 +2621,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2798,7 +2798,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>175.2999571625446</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2807,7 +2807,7 @@
         <v>298.5127811721451</v>
       </c>
       <c r="H29" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>57.65886129508321</v>
@@ -2852,13 +2852,13 @@
         <v>220.1793158548093</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
         <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>203.4850505198226</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I30" t="n">
-        <v>53.13297117133602</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326561</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3357,13 +3357,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3597,10 +3597,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326478</v>
       </c>
       <c r="I39" t="n">
-        <v>53.13297117133546</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>217.7550997812301</v>
       </c>
       <c r="D41" t="n">
-        <v>208.7364038257581</v>
+        <v>208.736403825758</v>
       </c>
       <c r="E41" t="n">
         <v>230.4785413956636</v>
       </c>
       <c r="F41" t="n">
-        <v>249.6503574836408</v>
+        <v>163.1041998361462</v>
       </c>
       <c r="G41" t="n">
         <v>251.5836253810633</v>
@@ -3758,7 +3758,7 @@
         <v>169.1337403593732</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400132</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3788,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.99736431665897</v>
+        <v>24.99736431665895</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.75603550700831</v>
       </c>
       <c r="U41" t="n">
-        <v>77.91674498737027</v>
+        <v>91.97716162385527</v>
       </c>
       <c r="V41" t="n">
-        <v>173.2501600637275</v>
+        <v>173.2501600637274</v>
       </c>
       <c r="W41" t="n">
-        <v>198.5502595416844</v>
+        <v>198.5502595416843</v>
       </c>
       <c r="X41" t="n">
         <v>217.850517774431</v>
@@ -3834,7 +3834,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824542</v>
+        <v>21.36049369824539</v>
       </c>
       <c r="C43" t="n">
-        <v>7.560488543645903</v>
+        <v>7.560488543645874</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846537886</v>
+        <v>6.871229846537858</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105871</v>
+        <v>51.21334367105868</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318735</v>
+        <v>70.48784235318732</v>
       </c>
       <c r="U43" t="n">
         <v>123.9590158165005</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787101</v>
+        <v>97.76863009787098</v>
       </c>
       <c r="W43" t="n">
-        <v>122.9355161684843</v>
+        <v>122.9355161684842</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428739</v>
+        <v>68.58061816428736</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.45548592035507</v>
+        <v>59.45548592035504</v>
       </c>
     </row>
     <row r="44">
@@ -3977,22 +3977,22 @@
         <v>229.7437828235483</v>
       </c>
       <c r="C44" t="n">
-        <v>217.7550997812301</v>
+        <v>141.9386476377373</v>
       </c>
       <c r="D44" t="n">
-        <v>208.7364038257581</v>
+        <v>208.736403825758</v>
       </c>
       <c r="E44" t="n">
         <v>230.4785413956636</v>
       </c>
       <c r="F44" t="n">
-        <v>249.6503574836408</v>
+        <v>249.6503574836407</v>
       </c>
       <c r="G44" t="n">
         <v>251.5836253810633</v>
       </c>
       <c r="H44" t="n">
-        <v>118.3146525325398</v>
+        <v>169.1337403593732</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.99736431665895</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700833</v>
+        <v>61.75603550700831</v>
       </c>
       <c r="U44" t="n">
-        <v>91.9771616238553</v>
+        <v>91.97716162385527</v>
       </c>
       <c r="V44" t="n">
-        <v>173.2501600637275</v>
+        <v>173.2501600637274</v>
       </c>
       <c r="W44" t="n">
-        <v>198.5502595416844</v>
+        <v>198.5502595416843</v>
       </c>
       <c r="X44" t="n">
         <v>217.850517774431</v>
@@ -4068,13 +4068,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>112.8757236914445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824542</v>
+        <v>21.36049369824539</v>
       </c>
       <c r="C46" t="n">
-        <v>7.560488543645903</v>
+        <v>7.560488543645874</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846537886</v>
+        <v>6.871229846537858</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105871</v>
+        <v>51.21334367105868</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318735</v>
+        <v>70.48784235318732</v>
       </c>
       <c r="U46" t="n">
         <v>123.9590158165005</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787101</v>
+        <v>97.76863009787098</v>
       </c>
       <c r="W46" t="n">
-        <v>122.9355161684843</v>
+        <v>122.9355161684842</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428739</v>
+        <v>68.58061816428736</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.45548592035507</v>
+        <v>59.45548592035504</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.9429898857486</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="C2" t="n">
-        <v>686.9429898857486</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="D2" t="n">
-        <v>314.1190251129722</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="E2" t="n">
-        <v>314.1190251129722</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="F2" t="n">
-        <v>304.0082384635465</v>
+        <v>526.1097455550309</v>
       </c>
       <c r="G2" t="n">
-        <v>291.9446559581386</v>
+        <v>514.0461630496229</v>
       </c>
       <c r="H2" t="n">
-        <v>39.85692561759404</v>
+        <v>212.674124408798</v>
       </c>
       <c r="I2" t="n">
         <v>39.85692561759404</v>
@@ -4343,37 +4343,37 @@
         <v>1471.451739960932</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.456324433766</v>
+        <v>1764.689384423649</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193165</v>
+        <v>1992.846280879702</v>
       </c>
       <c r="Q2" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R2" t="n">
-        <v>1992.846280879702</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S2" t="n">
-        <v>1992.846280879702</v>
+        <v>1714.979019005909</v>
       </c>
       <c r="T2" t="n">
-        <v>1768.487334610713</v>
+        <v>1490.62007273692</v>
       </c>
       <c r="U2" t="n">
-        <v>1768.487334610713</v>
+        <v>1235.734736450914</v>
       </c>
       <c r="V2" t="n">
-        <v>1431.508060506654</v>
+        <v>898.7554623468554</v>
       </c>
       <c r="W2" t="n">
-        <v>1068.973130364255</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="X2" t="n">
-        <v>686.9429898857486</v>
+        <v>536.2205322044565</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.9429898857486</v>
+        <v>536.2205322044565</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.1696861196382</v>
+        <v>754.2486917273902</v>
       </c>
       <c r="C3" t="n">
-        <v>757.4660133605929</v>
+        <v>592.5450189683449</v>
       </c>
       <c r="D3" t="n">
-        <v>618.627376350805</v>
+        <v>453.706381958557</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>453.706381958557</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>319.0125839084313</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>190.2840839317159</v>
       </c>
       <c r="H3" t="n">
-        <v>108.239210927533</v>
+        <v>90.34622647841395</v>
       </c>
       <c r="I3" t="n">
         <v>39.85692561759404</v>
@@ -4416,43 +4416,43 @@
         <v>695.4234698810044</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.456823391231</v>
+        <v>695.4234698810044</v>
       </c>
       <c r="N3" t="n">
-        <v>1673.686277908957</v>
+        <v>1188.652924398731</v>
       </c>
       <c r="O3" t="n">
-        <v>1673.686277908957</v>
+        <v>1580.852875182881</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.782197184654</v>
+        <v>1835.074651094107</v>
       </c>
       <c r="Q3" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R3" t="n">
-        <v>1992.846280879702</v>
+        <v>1933.062011974647</v>
       </c>
       <c r="S3" t="n">
-        <v>1840.046793892442</v>
+        <v>1780.262524987388</v>
       </c>
       <c r="T3" t="n">
-        <v>1840.046793892442</v>
+        <v>1591.577421153373</v>
       </c>
       <c r="U3" t="n">
-        <v>1840.046793892442</v>
+        <v>1373.082628751683</v>
       </c>
       <c r="V3" t="n">
-        <v>1710.343312140215</v>
+        <v>1144.687006200017</v>
       </c>
       <c r="W3" t="n">
-        <v>1469.027443373526</v>
+        <v>1144.687006200017</v>
       </c>
       <c r="X3" t="n">
-        <v>1271.11045525132</v>
+        <v>946.7700180778114</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.589128900899</v>
+        <v>754.2486917273902</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="C4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="D4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="E4" t="n">
-        <v>505.4603736212884</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="F4" t="n">
-        <v>352.9797186470655</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="G4" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="H4" t="n">
-        <v>184.0599700149155</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I4" t="n">
         <v>39.85692561759404</v>
@@ -4507,31 +4507,31 @@
         <v>571.9161708635265</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.1922802845161</v>
       </c>
       <c r="R4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.1922802845161</v>
       </c>
       <c r="S4" t="n">
-        <v>571.9161708635265</v>
+        <v>559.1922802845161</v>
       </c>
       <c r="T4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001949</v>
       </c>
       <c r="U4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001949</v>
       </c>
       <c r="V4" t="n">
-        <v>571.9161708635265</v>
+        <v>326.0133271001949</v>
       </c>
       <c r="W4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="X4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="Y4" t="n">
-        <v>571.9161708635265</v>
+        <v>39.85692561759404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.457194132206</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="C5" t="n">
-        <v>1004.523435465014</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="D5" t="n">
-        <v>631.6994706922371</v>
+        <v>789.6382890690115</v>
       </c>
       <c r="E5" t="n">
-        <v>236.913750798344</v>
+        <v>394.8525691751183</v>
       </c>
       <c r="F5" t="n">
-        <v>224.737706914206</v>
+        <v>384.7417825256927</v>
       </c>
       <c r="G5" t="n">
-        <v>212.674124408798</v>
+        <v>372.6782000202847</v>
       </c>
       <c r="H5" t="n">
-        <v>212.674124408798</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="I5" t="n">
         <v>39.85692561759404</v>
@@ -4583,34 +4583,34 @@
         <v>1704.457780160961</v>
       </c>
       <c r="P5" t="n">
-        <v>1932.614676617014</v>
+        <v>1898.414027193165</v>
       </c>
       <c r="Q5" t="n">
         <v>1992.846280879702</v>
       </c>
       <c r="R5" t="n">
-        <v>1992.846280879702</v>
+        <v>1902.207994375555</v>
       </c>
       <c r="S5" t="n">
-        <v>1992.846280879702</v>
+        <v>1714.979019005909</v>
       </c>
       <c r="T5" t="n">
-        <v>1768.487334610713</v>
+        <v>1714.979019005909</v>
       </c>
       <c r="U5" t="n">
-        <v>1768.487334610713</v>
+        <v>1714.979019005909</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.487334610713</v>
+        <v>1377.99974490185</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.487334610713</v>
+        <v>1015.464814759451</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.457194132206</v>
+        <v>1015.464814759451</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.457194132206</v>
+        <v>789.6382890690115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>754.7822399057682</v>
+        <v>583.2202638231958</v>
       </c>
       <c r="C6" t="n">
-        <v>593.0785671467229</v>
+        <v>421.5165910641504</v>
       </c>
       <c r="D6" t="n">
-        <v>454.239930136935</v>
+        <v>421.5165910641504</v>
       </c>
       <c r="E6" t="n">
-        <v>307.2119201938062</v>
+        <v>274.4885811210216</v>
       </c>
       <c r="F6" t="n">
-        <v>172.5181221436805</v>
+        <v>139.794783070896</v>
       </c>
       <c r="G6" t="n">
-        <v>43.7896221669651</v>
+        <v>139.794783070896</v>
       </c>
       <c r="H6" t="n">
         <v>39.85692561759404</v>
@@ -4644,19 +4644,19 @@
         <v>39.85692561759404</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1110721507002</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6016247108888</v>
+        <v>269.3474781777827</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810044</v>
+        <v>635.1693233478984</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.456823391231</v>
+        <v>1120.202676858125</v>
       </c>
       <c r="N6" t="n">
-        <v>1532.97873181841</v>
+        <v>1140.778781034259</v>
       </c>
       <c r="O6" t="n">
         <v>1532.97873181841</v>
@@ -4668,28 +4668,28 @@
         <v>1992.846280879702</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879702</v>
+        <v>1933.062011974647</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879702</v>
+        <v>1780.262524987388</v>
       </c>
       <c r="T6" t="n">
-        <v>1992.846280879702</v>
+        <v>1780.262524987388</v>
       </c>
       <c r="U6" t="n">
-        <v>1774.351488478012</v>
+        <v>1561.767732585698</v>
       </c>
       <c r="V6" t="n">
-        <v>1545.955865926346</v>
+        <v>1333.372110034032</v>
       </c>
       <c r="W6" t="n">
-        <v>1304.639997159656</v>
+        <v>1133.078021077083</v>
       </c>
       <c r="X6" t="n">
-        <v>1106.72300903745</v>
+        <v>935.1610329548779</v>
       </c>
       <c r="Y6" t="n">
-        <v>914.2016826870291</v>
+        <v>742.6397066044567</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="C7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="D7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="E7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="F7" t="n">
-        <v>205.7257532929912</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="G7" t="n">
         <v>39.85692561759404</v>
@@ -4750,25 +4750,25 @@
         <v>571.9161708635265</v>
       </c>
       <c r="S7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="T7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="U7" t="n">
-        <v>358.2064082672141</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="V7" t="n">
-        <v>358.2064082672141</v>
+        <v>326.0133271001949</v>
       </c>
       <c r="W7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="X7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.2064082672141</v>
+        <v>39.85692561759404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840.9181038171187</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>458.984345149926</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
         <v>458.984345149926</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1876.853858790972</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1876.853858790972</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>1876.853858790972</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>1514.318928648574</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>1132.288788170067</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>840.9181038171187</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>571.2329233000498</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>409.5292505410046</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1997.982068107998</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1809.296964273983</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1590.802171872293</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1362.406549320627</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1121.090680553937</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>923.1736924317319</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>730.6523660813107</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>421.0116081748944</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>269.0025939362132</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>269.0025939362132</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>201.3969013219254</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
         <v>42.02425610119923</v>
@@ -4990,22 +4990,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1185.431318985809</v>
+        <v>860.6707785707674</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.431318985809</v>
+        <v>860.6707785707674</v>
       </c>
       <c r="D11" t="n">
-        <v>927.1832789687994</v>
+        <v>602.4227385537574</v>
       </c>
       <c r="E11" t="n">
-        <v>927.1832789687994</v>
+        <v>349.1685934963917</v>
       </c>
       <c r="F11" t="n">
-        <v>627.6080130347361</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0799512446906</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8346015977663</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I11" t="n">
         <v>49.59332756232846</v>
@@ -5042,31 +5042,31 @@
         <v>233.8877356882608</v>
       </c>
       <c r="K11" t="n">
-        <v>484.5637385185827</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L11" t="n">
-        <v>832.449111603529</v>
+        <v>821.9134808179897</v>
       </c>
       <c r="M11" t="n">
-        <v>1225.688277856617</v>
+        <v>1215.152647071078</v>
       </c>
       <c r="N11" t="n">
-        <v>1604.019636544333</v>
+        <v>1593.484005758793</v>
       </c>
       <c r="O11" t="n">
-        <v>1909.024221017167</v>
+        <v>2010.784454084754</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326347</v>
+        <v>2351.237214393934</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.20509886601</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R11" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="S11" t="n">
-        <v>2407.013327502544</v>
+        <v>2407.013327502543</v>
       </c>
       <c r="T11" t="n">
         <v>2297.230305989321</v>
@@ -5075,16 +5075,16 @@
         <v>2156.920894459081</v>
       </c>
       <c r="V11" t="n">
-        <v>2156.920894459081</v>
+        <v>1934.517545110789</v>
       </c>
       <c r="W11" t="n">
-        <v>2011.319080139198</v>
+        <v>1686.558539724156</v>
       </c>
       <c r="X11" t="n">
-        <v>1743.864864416458</v>
+        <v>1419.104324001416</v>
       </c>
       <c r="Y11" t="n">
-        <v>1464.898933748062</v>
+        <v>1140.13839333302</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C12" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524106</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022849</v>
+        <v>278.2596849923459</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232846</v>
       </c>
       <c r="I12" t="n">
         <v>49.59332756232846</v>
@@ -5133,37 +5133,37 @@
         <v>1701.458871459088</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055132</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.894748330829</v>
       </c>
       <c r="Q12" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116423</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S12" t="n">
-        <v>2326.866891129163</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T12" t="n">
-        <v>2138.181787295149</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U12" t="n">
-        <v>1919.686994893459</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V12" t="n">
-        <v>1691.291372341793</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W12" t="n">
-        <v>1449.975503575103</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X12" t="n">
-        <v>1252.058515452897</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456224</v>
+        <v>347.2348244456223</v>
       </c>
       <c r="C13" t="n">
         <v>292.1947796630691</v>
@@ -5185,10 +5185,10 @@
         <v>216.2657217636834</v>
       </c>
       <c r="F13" t="n">
-        <v>178.360991545227</v>
+        <v>178.3609915452269</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688434</v>
+        <v>124.0171676688433</v>
       </c>
       <c r="H13" t="n">
         <v>79.22044720388354</v>
@@ -5197,28 +5197,28 @@
         <v>49.59332756232846</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774856</v>
+        <v>103.027091877486</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752556</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286418</v>
+        <v>461.8300867286422</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093702</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120972</v>
+        <v>922.8376623120976</v>
       </c>
       <c r="O13" t="n">
-        <v>1133.597172660913</v>
+        <v>1133.597172660914</v>
       </c>
       <c r="P13" t="n">
         <v>1308.861520242178</v>
       </c>
       <c r="Q13" t="n">
-        <v>1383.386935841785</v>
+        <v>1383.386935841786</v>
       </c>
       <c r="R13" t="n">
         <v>1348.44107921193</v>
@@ -5233,16 +5233,16 @@
         <v>958.0898981876954</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018845</v>
+        <v>811.9305185018844</v>
       </c>
       <c r="W13" t="n">
-        <v>640.35004177505</v>
+        <v>640.3500417750499</v>
       </c>
       <c r="X13" t="n">
         <v>523.6735024261922</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742358</v>
+        <v>416.2142683742356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1405.819611576402</v>
+        <v>1139.636709239164</v>
       </c>
       <c r="C14" t="n">
-        <v>1138.461777664975</v>
+        <v>872.2788753277373</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.461777664975</v>
+        <v>614.0308353107274</v>
       </c>
       <c r="E14" t="n">
-        <v>858.2519825268487</v>
+        <v>614.0308353107274</v>
       </c>
       <c r="F14" t="n">
-        <v>558.6767165927854</v>
+        <v>314.4555693766641</v>
       </c>
       <c r="G14" t="n">
-        <v>257.1486548027398</v>
+        <v>267.8386772092528</v>
       </c>
       <c r="H14" t="n">
         <v>49.59332756232846</v>
@@ -5279,49 +5279,49 @@
         <v>233.8877356882608</v>
       </c>
       <c r="K14" t="n">
-        <v>484.5637385185827</v>
+        <v>474.0281077330435</v>
       </c>
       <c r="L14" t="n">
-        <v>832.449111603529</v>
+        <v>821.9134808179897</v>
       </c>
       <c r="M14" t="n">
-        <v>1225.688277856617</v>
+        <v>1327.448510924204</v>
       </c>
       <c r="N14" t="n">
-        <v>1604.019636544333</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O14" t="n">
-        <v>1909.024221017167</v>
+        <v>2044.781364120706</v>
       </c>
       <c r="P14" t="n">
-        <v>2249.476981326347</v>
+        <v>2272.938260576759</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.20509886601</v>
+        <v>2479.666378116423</v>
       </c>
       <c r="R14" t="n">
         <v>2479.666378116423</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116423</v>
+        <v>2407.013327502544</v>
       </c>
       <c r="T14" t="n">
-        <v>2479.666378116423</v>
+        <v>2297.230305989322</v>
       </c>
       <c r="U14" t="n">
-        <v>2479.666378116423</v>
+        <v>2156.920894459082</v>
       </c>
       <c r="V14" t="n">
-        <v>2479.666378116423</v>
+        <v>1934.517545110789</v>
       </c>
       <c r="W14" t="n">
-        <v>2231.70737272979</v>
+        <v>1686.558539724157</v>
       </c>
       <c r="X14" t="n">
-        <v>1964.25315700705</v>
+        <v>1419.104324001416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1685.287226338654</v>
+        <v>1419.104324001416</v>
       </c>
     </row>
     <row r="15">
@@ -5346,10 +5346,10 @@
         <v>258.0693596540732</v>
       </c>
       <c r="G15" t="n">
-        <v>129.3408596773578</v>
+        <v>217.9134703255694</v>
       </c>
       <c r="H15" t="n">
-        <v>49.59332756232846</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I15" t="n">
         <v>49.59332756232846</v>
@@ -5358,13 +5358,13 @@
         <v>109.8474740954346</v>
       </c>
       <c r="K15" t="n">
-        <v>265.4780334675167</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L15" t="n">
-        <v>631.2998786376323</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.333232147859</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N15" t="n">
         <v>1627.598878270981</v>
@@ -5440,13 +5440,13 @@
         <v>248.9271434752559</v>
       </c>
       <c r="L16" t="n">
-        <v>461.830086728642</v>
+        <v>461.8300867286419</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093704</v>
+        <v>692.1194567093703</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120975</v>
+        <v>922.8376623120973</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660914</v>
@@ -5492,49 +5492,49 @@
         <v>1325.912468951885</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338098</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187284</v>
+        <v>916.6170176187277</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782413</v>
+        <v>694.5624337782408</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418177</v>
+        <v>453.1423791418171</v>
       </c>
       <c r="G17" t="n">
-        <v>209.7695286494118</v>
+        <v>209.7695286494111</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012727</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I17" t="n">
         <v>49.59332756232846</v>
       </c>
       <c r="J17" t="n">
-        <v>290.8856582810774</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K17" t="n">
-        <v>700.3198167718035</v>
+        <v>361.7322438799169</v>
       </c>
       <c r="L17" t="n">
-        <v>1048.20518985675</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M17" t="n">
-        <v>1441.444356109838</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N17" t="n">
-        <v>1819.775714797553</v>
+        <v>1771.61344165777</v>
       </c>
       <c r="O17" t="n">
-        <v>2124.780299270387</v>
+        <v>2076.618026130604</v>
       </c>
       <c r="P17" t="n">
-        <v>2352.937195726441</v>
+        <v>2304.774922586657</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.369449412978</v>
+        <v>2399.207176273194</v>
       </c>
       <c r="R17" t="n">
         <v>2479.666378116423</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161608</v>
       </c>
       <c r="C18" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571155</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473276</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577041988</v>
       </c>
       <c r="F18" t="n">
         <v>346.6419703022849</v>
@@ -5610,7 +5610,7 @@
         <v>2093.658822243239</v>
       </c>
       <c r="P18" t="n">
-        <v>2321.894748330829</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q18" t="n">
         <v>2479.666378116423</v>
@@ -5619,25 +5619,25 @@
         <v>2419.882109211369</v>
       </c>
       <c r="S18" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224109</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547843</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974218</v>
       </c>
     </row>
     <row r="19">
@@ -5689,34 +5689,34 @@
         <v>518.6840890801232</v>
       </c>
       <c r="P19" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q19" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046123</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736973</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162032</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280319</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988371</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X19" t="n">
-        <v>109.721582947619</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330219</v>
+        <v>60.41756019330228</v>
       </c>
     </row>
     <row r="20">
@@ -5732,52 +5732,52 @@
         <v>1116.709846338098</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187279</v>
+        <v>916.6170176187278</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782408</v>
+        <v>694.5624337782407</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418172</v>
+        <v>453.1423791418171</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494111</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012635</v>
+        <v>49.67939030012644</v>
       </c>
       <c r="I20" t="n">
         <v>49.59332756232845</v>
       </c>
       <c r="J20" t="n">
-        <v>290.8856582810774</v>
+        <v>121.5918718351341</v>
       </c>
       <c r="K20" t="n">
-        <v>700.3198167718035</v>
+        <v>394.029172583362</v>
       </c>
       <c r="L20" t="n">
-        <v>1048.20518985675</v>
+        <v>741.9145456683083</v>
       </c>
       <c r="M20" t="n">
-        <v>1441.444356109838</v>
+        <v>1304.447498367339</v>
       </c>
       <c r="N20" t="n">
-        <v>1819.775714797553</v>
+        <v>1682.778857055055</v>
       </c>
       <c r="O20" t="n">
-        <v>2124.780299270387</v>
+        <v>1987.783441527889</v>
       </c>
       <c r="P20" t="n">
-        <v>2352.937195726441</v>
+        <v>2215.940337983942</v>
       </c>
       <c r="Q20" t="n">
-        <v>2447.369449412978</v>
+        <v>2479.666378116422</v>
       </c>
       <c r="R20" t="n">
         <v>2479.666378116422</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800183</v>
       </c>
       <c r="T20" t="n">
         <v>2413.5407285846</v>
@@ -5789,7 +5789,7 @@
         <v>2167.138390301347</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212354</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X20" t="n">
         <v>1768.035591787254</v>
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161603</v>
       </c>
       <c r="C21" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571151</v>
       </c>
       <c r="D21" t="n">
-        <v>628.3637782955393</v>
+        <v>559.9814929856002</v>
       </c>
       <c r="E21" t="n">
-        <v>481.3357683524105</v>
+        <v>412.9534830424715</v>
       </c>
       <c r="F21" t="n">
-        <v>346.6419703022848</v>
+        <v>278.2596849923458</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156304</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="I21" t="n">
         <v>49.59332756232845</v>
       </c>
       <c r="J21" t="n">
-        <v>49.59332756232845</v>
+        <v>109.8474740954346</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4780334675162</v>
+        <v>339.3380266556233</v>
       </c>
       <c r="L21" t="n">
-        <v>631.2998786376319</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.333232147858</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N21" t="n">
         <v>1627.59887827098</v>
@@ -5853,28 +5853,28 @@
         <v>2479.666378116422</v>
       </c>
       <c r="R21" t="n">
-        <v>2479.666378116422</v>
+        <v>2419.882109211368</v>
       </c>
       <c r="S21" t="n">
-        <v>2355.655232872321</v>
+        <v>2267.082622224108</v>
       </c>
       <c r="T21" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390094</v>
       </c>
       <c r="U21" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988404</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436738</v>
       </c>
       <c r="W21" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670048</v>
       </c>
       <c r="X21" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547842</v>
       </c>
       <c r="Y21" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974213</v>
       </c>
     </row>
     <row r="22">
@@ -5890,70 +5890,70 @@
         <v>49.59332756232845</v>
       </c>
       <c r="D22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="E22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="F22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="G22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="H22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="I22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="J22" t="n">
-        <v>53.49864670158617</v>
+        <v>49.59332756232845</v>
       </c>
       <c r="K22" t="n">
-        <v>87.10283444622958</v>
+        <v>83.19751530697187</v>
       </c>
       <c r="L22" t="n">
-        <v>187.7099138464891</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M22" t="n">
-        <v>305.7034199740908</v>
+        <v>301.7981008348331</v>
       </c>
       <c r="N22" t="n">
-        <v>424.1257617236912</v>
+        <v>424.1257617236919</v>
       </c>
       <c r="O22" t="n">
-        <v>522.5894082193809</v>
+        <v>522.5894082193815</v>
       </c>
       <c r="P22" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="Q22" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046123</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736973</v>
+        <v>484.1314482736977</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162032</v>
+        <v>369.6723448162036</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280319</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W22" t="n">
-        <v>168.2429109988371</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X22" t="n">
-        <v>109.721582947619</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330218</v>
+        <v>60.41756019330226</v>
       </c>
     </row>
     <row r="23">
@@ -5969,67 +5969,67 @@
         <v>1116.709846338098</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187277</v>
+        <v>916.617017618728</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782406</v>
+        <v>694.5624337782409</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418169</v>
+        <v>453.1423791418173</v>
       </c>
       <c r="G23" t="n">
-        <v>209.769528649411</v>
+        <v>209.7695286494113</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012635</v>
+        <v>49.67939030012646</v>
       </c>
       <c r="I23" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5918718351341</v>
+        <v>290.8856582810773</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7322438799169</v>
+        <v>531.0260303258601</v>
       </c>
       <c r="L23" t="n">
-        <v>709.6176169648631</v>
+        <v>878.9114034108063</v>
       </c>
       <c r="M23" t="n">
-        <v>1102.856783217951</v>
+        <v>1272.150569663894</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.188141905667</v>
+        <v>1650.48192835161</v>
       </c>
       <c r="O23" t="n">
-        <v>1786.192726378501</v>
+        <v>2124.780299270387</v>
       </c>
       <c r="P23" t="n">
-        <v>2135.481136140713</v>
+        <v>2352.93719572644</v>
       </c>
       <c r="Q23" t="n">
-        <v>2399.207176273193</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800182</v>
+        <v>2465.168538800184</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584599</v>
+        <v>2413.540728584601</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528351999</v>
+        <v>2331.386528352001</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301347</v>
+        <v>2167.138390301348</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212354</v>
+        <v>1977.334596212355</v>
       </c>
       <c r="X23" t="n">
-        <v>1768.035591787253</v>
+        <v>1768.035591787254</v>
       </c>
       <c r="Y23" t="n">
         <v>1547.224872416498</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>840.3334774161603</v>
+        <v>840.3334774161617</v>
       </c>
       <c r="C24" t="n">
-        <v>678.6298046571151</v>
+        <v>678.6298046571164</v>
       </c>
       <c r="D24" t="n">
-        <v>539.7911676473271</v>
+        <v>539.7911676473285</v>
       </c>
       <c r="E24" t="n">
-        <v>392.7631577041984</v>
+        <v>392.7631577041997</v>
       </c>
       <c r="F24" t="n">
-        <v>258.0693596540727</v>
+        <v>258.0693596540741</v>
       </c>
       <c r="G24" t="n">
-        <v>129.3408596773573</v>
+        <v>129.3408596773587</v>
       </c>
       <c r="H24" t="n">
         <v>117.9756128722675</v>
       </c>
       <c r="I24" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="J24" t="n">
         <v>109.8474740954346</v>
@@ -6072,46 +6072,46 @@
         <v>339.3380266556233</v>
       </c>
       <c r="L24" t="n">
-        <v>631.2998786376319</v>
+        <v>631.2998786376332</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.333232147858</v>
+        <v>1116.33323214786</v>
       </c>
       <c r="N24" t="n">
-        <v>1627.59887827098</v>
+        <v>1627.598878270982</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.798829055131</v>
+        <v>2019.798829055133</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330828</v>
+        <v>2321.89474833083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116422</v>
+        <v>2479.666378116424</v>
       </c>
       <c r="R24" t="n">
-        <v>2419.882109211368</v>
+        <v>2419.882109211369</v>
       </c>
       <c r="S24" t="n">
-        <v>2267.082622224108</v>
+        <v>2267.08262222411</v>
       </c>
       <c r="T24" t="n">
-        <v>2078.397518390094</v>
+        <v>2078.397518390095</v>
       </c>
       <c r="U24" t="n">
-        <v>1859.902725988404</v>
+        <v>1859.902725988405</v>
       </c>
       <c r="V24" t="n">
-        <v>1631.507103436738</v>
+        <v>1631.507103436739</v>
       </c>
       <c r="W24" t="n">
-        <v>1390.191234670048</v>
+        <v>1390.191234670049</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.274246547842</v>
+        <v>1192.274246547844</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.7529201974213</v>
+        <v>999.7529201974227</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="C25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="D25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="E25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="F25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="G25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="H25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="I25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="J25" t="n">
-        <v>49.59332756232845</v>
+        <v>49.59332756232848</v>
       </c>
       <c r="K25" t="n">
-        <v>83.19751530697187</v>
+        <v>83.19751530697189</v>
       </c>
       <c r="L25" t="n">
         <v>183.8045947072314</v>
@@ -6166,31 +6166,31 @@
         <v>581.652572808261</v>
       </c>
       <c r="Q25" t="n">
-        <v>581.652572808261</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475187</v>
+        <v>585.5578919475194</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046123</v>
+        <v>544.5792654046129</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736973</v>
+        <v>484.1314482736978</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162032</v>
+        <v>369.6723448162037</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280319</v>
+        <v>281.6681764280323</v>
       </c>
       <c r="W25" t="n">
-        <v>168.2429109988371</v>
+        <v>168.2429109988374</v>
       </c>
       <c r="X25" t="n">
-        <v>109.721582947619</v>
+        <v>109.7215829476192</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330218</v>
+        <v>60.41756019330229</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.242696779854</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.884862868427</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.636822851417</v>
+        <v>897.2523418669166</v>
       </c>
       <c r="E26" t="n">
-        <v>938.4270277132908</v>
+        <v>617.0425467287898</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8517617792276</v>
+        <v>317.4672807947268</v>
       </c>
       <c r="G26" t="n">
-        <v>337.3236999891819</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0783503422576</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
         <v>60.83707630682017</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327525</v>
+        <v>245.1314844327524</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306623</v>
+        <v>597.5677203306616</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.28398737495</v>
+        <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O26" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P26" t="n">
         <v>2811.664418550932</v>
@@ -6251,25 +6251,25 @@
         <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
-        <v>3011.619315043235</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T26" t="n">
-        <v>2901.836293530012</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U26" t="n">
-        <v>2761.526881999772</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V26" t="n">
-        <v>2539.12353265148</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W26" t="n">
-        <v>2291.164527264847</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X26" t="n">
-        <v>2023.710311542106</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.710311542106</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>229.1572190700611</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I27" t="n">
         <v>60.83707630682017</v>
@@ -6333,22 +6333,22 @@
         <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U27" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V27" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W27" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901141</v>
+        <v>358.4785731901145</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075609</v>
+        <v>303.4385284075612</v>
       </c>
       <c r="D28" t="n">
-        <v>264.94255999109</v>
+        <v>264.9425599910903</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081752</v>
+        <v>227.5094705081756</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897187</v>
+        <v>189.6047402897191</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133351</v>
+        <v>135.2609164133355</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837525</v>
+        <v>90.46419594837568</v>
       </c>
       <c r="I28" t="n">
         <v>60.83707630682017</v>
@@ -6391,10 +6391,10 @@
         <v>473.0738354731334</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538618</v>
+        <v>703.3632054538621</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565889</v>
+        <v>934.0814110565891</v>
       </c>
       <c r="O28" t="n">
         <v>1144.840921405405</v>
@@ -6406,28 +6406,28 @@
         <v>1394.630684586277</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956421</v>
+        <v>1359.684827956422</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115875</v>
+        <v>1260.550990115876</v>
       </c>
       <c r="T28" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.947961687322</v>
       </c>
       <c r="U28" t="n">
-        <v>969.333646932187</v>
+        <v>969.3336469321879</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463761</v>
+        <v>823.1742672463769</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195417</v>
+        <v>651.5937905195424</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706838</v>
+        <v>534.9172511706845</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187275</v>
+        <v>427.4580171187279</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1744.242696779854</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C29" t="n">
-        <v>1476.884862868427</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.636822851417</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="E29" t="n">
-        <v>938.4270277132908</v>
+        <v>720.1816780663667</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8517617792277</v>
+        <v>420.6064121323034</v>
       </c>
       <c r="G29" t="n">
-        <v>337.323699989182</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0783503422576</v>
+        <v>119.0783503422577</v>
       </c>
       <c r="I29" t="n">
         <v>60.83707630682017</v>
@@ -6467,16 +6467,16 @@
         <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
-        <v>1057.748957268734</v>
+        <v>1057.748957268735</v>
       </c>
       <c r="M29" t="n">
         <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915791</v>
+        <v>2053.911209915792</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241752</v>
+        <v>2471.211658241753</v>
       </c>
       <c r="P29" t="n">
         <v>2811.664418550932</v>
@@ -6491,7 +6491,7 @@
         <v>2969.200764727129</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213906</v>
+        <v>2859.417743213907</v>
       </c>
       <c r="U29" t="n">
         <v>2719.108331683667</v>
@@ -6500,13 +6500,13 @@
         <v>2496.704982335375</v>
       </c>
       <c r="W29" t="n">
-        <v>2496.704982335375</v>
+        <v>2248.745976948742</v>
       </c>
       <c r="X29" t="n">
-        <v>2229.250766612634</v>
+        <v>1981.291761226002</v>
       </c>
       <c r="Y29" t="n">
-        <v>2023.710311542106</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5067441566545</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I30" t="n">
         <v>60.83707630682017</v>
@@ -6619,19 +6619,19 @@
         <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2708406219775</v>
+        <v>114.2708406219777</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197475</v>
+        <v>260.1708922197478</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731337</v>
+        <v>473.0738354731339</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538621</v>
+        <v>703.3632054538623</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565891</v>
+        <v>934.0814110565893</v>
       </c>
       <c r="O31" t="n">
         <v>1144.840921405406</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.536318111711</v>
+        <v>1542.53631811171</v>
       </c>
       <c r="C32" t="n">
-        <v>1303.684062512361</v>
+        <v>1303.68406251236</v>
       </c>
       <c r="D32" t="n">
-        <v>1073.941600807428</v>
+        <v>1073.941600807427</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813783</v>
+        <v>822.2373839813777</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593923</v>
+        <v>551.1676963593916</v>
       </c>
       <c r="G32" t="n">
-        <v>278.1452128814227</v>
+        <v>278.145212881423</v>
       </c>
       <c r="H32" t="n">
         <v>88.40544154657547</v>
@@ -6701,22 +6701,22 @@
         <v>270.902471252814</v>
       </c>
       <c r="K32" t="n">
-        <v>511.0428432975967</v>
+        <v>651.2770244543901</v>
       </c>
       <c r="L32" t="n">
-        <v>858.928216382543</v>
+        <v>1062.220891580061</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.401563792424</v>
+        <v>1455.460057833149</v>
       </c>
       <c r="N32" t="n">
-        <v>1833.791416520865</v>
+        <v>1974.025597677658</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150492</v>
+        <v>2419.264363307286</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763339</v>
+        <v>2787.655440920132</v>
       </c>
       <c r="Q32" t="n">
         <v>2882.087694606669</v>
@@ -6731,19 +6731,19 @@
         <v>2808.062375657801</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.258542439638</v>
+        <v>2696.258542439637</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403423</v>
+        <v>2502.360771403422</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328868</v>
+        <v>2282.907344328867</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918205</v>
+        <v>2043.958706918204</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561886</v>
+        <v>1793.498354561885</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9898885864559</v>
+        <v>212.2772711263516</v>
       </c>
       <c r="H33" t="n">
         <v>127.052031133154</v>
@@ -6801,28 +6801,28 @@
         <v>2562.602789565417</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.531138120466</v>
+        <v>2502.818520660362</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.731651133207</v>
+        <v>2350.019033673103</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.046547299192</v>
+        <v>2161.333929839088</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.551754897502</v>
+        <v>1942.839137437398</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.156132345836</v>
+        <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6862,13 +6862,13 @@
         <v>232.5081147246518</v>
       </c>
       <c r="L34" t="n">
-        <v>473.3493752817047</v>
+        <v>333.1151941249113</v>
       </c>
       <c r="M34" t="n">
-        <v>656.5196291360106</v>
+        <v>451.1087002525131</v>
       </c>
       <c r="N34" t="n">
-        <v>774.941970885611</v>
+        <v>634.7077897288176</v>
       </c>
       <c r="O34" t="n">
         <v>873.4056173813007</v>
@@ -6935,28 +6935,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810476</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659939</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1598.504434506797</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.601464417749</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -7005,10 +7005,10 @@
         <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208573</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
         <v>52.21328648670345</v>
@@ -7093,52 +7093,52 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>97.31943502373917</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>130.9236227683826</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
-        <v>231.5307021686421</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962438</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458442</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415339</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
-        <v>1147.761190413099</v>
+        <v>1147.761190413098</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478542</v>
+        <v>942.7443621478537</v>
       </c>
       <c r="E38" t="n">
         <v>715.765778761493</v>
@@ -7172,28 +7172,28 @@
         <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>527.7073651707066</v>
+        <v>479.0485364810478</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.060512746685</v>
+        <v>826.9339095659941</v>
       </c>
       <c r="M38" t="n">
-        <v>1433.299678999773</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N38" t="n">
-        <v>1811.631037687489</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160323</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.968274529431</v>
+        <v>2296.133689926717</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215968</v>
+        <v>2555.033718104286</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104286</v>
@@ -7202,7 +7202,7 @@
         <v>2535.611879242173</v>
       </c>
       <c r="T38" t="n">
-        <v>2479.060069480717</v>
+        <v>2479.060069480716</v>
       </c>
       <c r="U38" t="n">
         <v>2391.981869702243</v>
@@ -7217,7 +7217,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583246</v>
+        <v>1588.124215583245</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7245,7 @@
         <v>204.7081996652215</v>
       </c>
       <c r="H39" t="n">
-        <v>104.7703422119195</v>
+        <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
         <v>51.10067436208573</v>
@@ -7257,10 +7257,10 @@
         <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254958</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
-        <v>1191.700572135722</v>
+        <v>1191.700572135723</v>
       </c>
       <c r="N39" t="n">
         <v>1702.966218258844</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F40" t="n">
         <v>52.21328648670345</v>
@@ -7345,37 +7345,37 @@
         <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>543.3258065570981</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>606.2942902852359</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1391.845894793125</v>
+        <v>1315.263619900707</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.891248549458</v>
+        <v>1095.30897365704</v>
       </c>
       <c r="D41" t="n">
-        <v>961.0463962002079</v>
+        <v>884.4641213077903</v>
       </c>
       <c r="E41" t="n">
-        <v>728.2397887298406</v>
+        <v>651.657513837423</v>
       </c>
       <c r="F41" t="n">
-        <v>476.0677104635367</v>
+        <v>486.9057968312148</v>
       </c>
       <c r="G41" t="n">
-        <v>221.9428363412506</v>
+        <v>232.7809227089286</v>
       </c>
       <c r="H41" t="n">
-        <v>51.10067436208574</v>
+        <v>61.93876072976384</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>123.0992186348914</v>
+        <v>281.8549467211891</v>
       </c>
       <c r="K41" t="n">
-        <v>363.2395906796742</v>
+        <v>521.9953187659719</v>
       </c>
       <c r="L41" t="n">
-        <v>711.1249637646204</v>
+        <v>869.8806918509181</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.364130017708</v>
+        <v>1263.119858104006</v>
       </c>
       <c r="N41" t="n">
         <v>1641.451216791722</v>
       </c>
       <c r="O41" t="n">
-        <v>2105.211529350853</v>
+        <v>1946.455801264556</v>
       </c>
       <c r="P41" t="n">
-        <v>2390.680320934167</v>
+        <v>2301.845736331452</v>
       </c>
       <c r="Q41" t="n">
-        <v>2485.112574620704</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7439,22 +7439,22 @@
         <v>2529.783855158167</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.783855158167</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2451.080072342641</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V41" t="n">
-        <v>2276.079910662108</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W41" t="n">
-        <v>2075.524092943235</v>
+        <v>1998.941818050817</v>
       </c>
       <c r="X41" t="n">
-        <v>1855.473064888255</v>
+        <v>1778.890789995836</v>
       </c>
       <c r="Y41" t="n">
-        <v>1623.910321887618</v>
+        <v>1547.3280469952</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
         <v>119.4829596720247</v>
@@ -7494,7 +7494,7 @@
         <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550371</v>
+        <v>58.73753147687955</v>
       </c>
       <c r="C43" t="n">
-        <v>58.04131057070987</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>58.04131057070987</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>58.04131057070987</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>58.04131057070987</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
@@ -7567,52 +7567,52 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>150.9943029104141</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>189.2038636084466</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>289.8109430087061</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.8044491363079</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859083</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373815979</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>687.6589211097357</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.6589211097357</v>
+        <v>680.7182849011115</v>
       </c>
       <c r="R43" t="n">
-        <v>687.6589211097357</v>
+        <v>680.7182849011115</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369492</v>
+        <v>628.9876347283249</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761539</v>
+        <v>557.7877939675296</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887797</v>
+        <v>432.5766668801554</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707281</v>
+        <v>333.8204748621039</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116531</v>
+        <v>209.6431858030289</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305547</v>
+        <v>140.3698341219305</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635768</v>
+        <v>80.31378773773349</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.513482846828</v>
+        <v>1315.263619900708</v>
       </c>
       <c r="C44" t="n">
-        <v>1120.558836603161</v>
+        <v>1171.891248549458</v>
       </c>
       <c r="D44" t="n">
-        <v>909.7139842539109</v>
+        <v>961.0463962002077</v>
       </c>
       <c r="E44" t="n">
-        <v>676.9073767835432</v>
+        <v>728.2397887298405</v>
       </c>
       <c r="F44" t="n">
-        <v>424.7352985172397</v>
+        <v>476.0677104635367</v>
       </c>
       <c r="G44" t="n">
-        <v>170.6104243949542</v>
+        <v>221.9428363412506</v>
       </c>
       <c r="H44" t="n">
         <v>51.10067436208574</v>
@@ -7649,49 +7649,49 @@
         <v>281.8549467211891</v>
       </c>
       <c r="K44" t="n">
-        <v>680.7510468522696</v>
+        <v>521.9953187659719</v>
       </c>
       <c r="L44" t="n">
         <v>1028.636419937216</v>
       </c>
       <c r="M44" t="n">
-        <v>1479.187481317564</v>
+        <v>1421.875586190304</v>
       </c>
       <c r="N44" t="n">
-        <v>1857.518840005279</v>
+        <v>1800.206944878019</v>
       </c>
       <c r="O44" t="n">
-        <v>2162.523424478113</v>
+        <v>2105.211529350853</v>
       </c>
       <c r="P44" t="n">
-        <v>2390.680320934167</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2485.112574620704</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2529.783855158167</v>
       </c>
       <c r="T44" t="n">
-        <v>2492.653884258824</v>
+        <v>2467.404021312704</v>
       </c>
       <c r="U44" t="n">
-        <v>2399.747660396344</v>
+        <v>2374.497797450224</v>
       </c>
       <c r="V44" t="n">
-        <v>2224.747498715811</v>
+        <v>2199.497635769691</v>
       </c>
       <c r="W44" t="n">
-        <v>2024.191680996938</v>
+        <v>1998.941818050817</v>
       </c>
       <c r="X44" t="n">
-        <v>1804.140652941958</v>
+        <v>1778.890789995836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1572.577909941321</v>
+        <v>1547.328046995201</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I45" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M45" t="n">
         <v>1191.700572135723</v>
@@ -7749,22 +7749,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
         <v>1267.641586535707</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550371</v>
+        <v>65.67816768550365</v>
       </c>
       <c r="C46" t="n">
-        <v>58.04131057070987</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="D46" t="n">
-        <v>58.04131057070987</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="E46" t="n">
-        <v>58.04131057070987</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="F46" t="n">
-        <v>58.04131057070987</v>
+        <v>58.04131057070984</v>
       </c>
       <c r="G46" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>53.65527286754972</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>53.65527286754972</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>53.65527286754972</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>189.2038636084466</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
-        <v>289.8109430087061</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>407.8044491363079</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>526.2267908859083</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>624.6904373815979</v>
+        <v>624.6904373815978</v>
       </c>
       <c r="P46" t="n">
-        <v>687.6589211097357</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.6589211097357</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="R46" t="n">
-        <v>687.6589211097357</v>
+        <v>687.6589211097356</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369492</v>
+        <v>635.928270936949</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761539</v>
+        <v>564.7284301761538</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887797</v>
+        <v>439.5173030887795</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707281</v>
+        <v>340.761111070728</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116531</v>
+        <v>216.583822011653</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305547</v>
+        <v>147.3104703305546</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635768</v>
+        <v>87.25442394635758</v>
       </c>
     </row>
   </sheetData>
@@ -7991,13 +7991,13 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>495.0402356415689</v>
+        <v>483.1544376515509</v>
       </c>
       <c r="P2" t="n">
-        <v>311.0664077980234</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
         <v>604.9267112876337</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>414.0015992319183</v>
+        <v>365.6438786617452</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.9716396217081</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>383.7922100937867</v>
       </c>
       <c r="Q5" t="n">
-        <v>241.4633773287355</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,10 +8304,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>462.7978768527378</v>
+        <v>127.4990846799652</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
         <v>414.0015992319183</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>437.4149613343877</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4944203312429</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9006,7 +9006,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>269.198754390992</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9015,7 +9015,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>548.5390329212591</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9258,10 +9258,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>339.3955455065575</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312429</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>330.0615286668564</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>548.5390329212587</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9720,7 +9720,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>407.4863951691362</v>
+        <v>407.4863951691377</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -10905,13 +10905,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944966</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466189</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>26.68609357995342</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>101.3336191560817</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>252.3620579264079</v>
       </c>
       <c r="H14" t="n">
-        <v>10.58312218244785</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>57.6588612950832</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>102.1077400242013</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.99436481294506</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>102.1077400242008</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24740,13 +24740,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>72.69122084188903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>86.54615764749451</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400134</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700833</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.06041663648503</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>75.8164521434927</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.8190878268334</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400134</v>
+        <v>10.72970550400132</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.99736431665897</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>624075.4491860982</v>
+        <v>624075.4491860983</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710052.2559571182</v>
+        <v>710052.2559571185</v>
       </c>
       <c r="C2" t="n">
-        <v>710052.2559571186</v>
+        <v>710052.2559571184</v>
       </c>
       <c r="D2" t="n">
         <v>710052.2559571184</v>
       </c>
       <c r="E2" t="n">
+        <v>646465.0280706154</v>
+      </c>
+      <c r="F2" t="n">
         <v>646465.0280706148</v>
       </c>
-      <c r="F2" t="n">
-        <v>646465.0280706144</v>
-      </c>
       <c r="G2" t="n">
+        <v>710052.255957118</v>
+      </c>
+      <c r="H2" t="n">
         <v>710052.2559571181</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>710052.255957118</v>
       </c>
-      <c r="I2" t="n">
-        <v>710052.2559571179</v>
-      </c>
       <c r="J2" t="n">
-        <v>686625.3520155777</v>
+        <v>686625.3520155767</v>
       </c>
       <c r="K2" t="n">
-        <v>686625.3520155757</v>
+        <v>686625.3520155762</v>
       </c>
       <c r="L2" t="n">
-        <v>710052.255957117</v>
+        <v>710052.2559571168</v>
       </c>
       <c r="M2" t="n">
-        <v>710052.2559571186</v>
+        <v>710052.2559571187</v>
       </c>
       <c r="N2" t="n">
-        <v>710052.2559571191</v>
+        <v>710052.2559571189</v>
       </c>
       <c r="O2" t="n">
-        <v>703679.8623695334</v>
+        <v>703679.8623695336</v>
       </c>
       <c r="P2" t="n">
         <v>703679.8623695333</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773063</v>
+        <v>46058.92734773056</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089568</v>
+        <v>68635.34537089562</v>
       </c>
       <c r="M3" t="n">
         <v>19582.70168423351</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430329</v>
+        <v>40069.40998430339</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>203953.7032080749</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
         <v>149911.6674641373</v>
@@ -26430,7 +26430,7 @@
         <v>149911.6674641373</v>
       </c>
       <c r="G4" t="n">
-        <v>188899.1837811234</v>
+        <v>188899.1837811233</v>
       </c>
       <c r="H4" t="n">
         <v>188899.1837811233</v>
@@ -26445,13 +26445,13 @@
         <v>173576.2621260966</v>
       </c>
       <c r="L4" t="n">
-        <v>187779.762665059</v>
+        <v>187779.7626650591</v>
       </c>
       <c r="M4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
         <v>183389.0956459939</v>
@@ -26482,13 +26482,13 @@
         <v>47226.88953147923</v>
       </c>
       <c r="G5" t="n">
+        <v>52067.04948547468</v>
+      </c>
+      <c r="H5" t="n">
+        <v>52067.04948547467</v>
+      </c>
+      <c r="I5" t="n">
         <v>52067.04948547469</v>
-      </c>
-      <c r="H5" t="n">
-        <v>52067.04948547468</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52067.04948547468</v>
       </c>
       <c r="J5" t="n">
         <v>55772.13857729292</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275217.5332328598</v>
+        <v>275217.53323286</v>
       </c>
       <c r="C6" t="n">
-        <v>442179.6892796722</v>
+        <v>442179.689279672</v>
       </c>
       <c r="D6" t="n">
-        <v>439091.31475462</v>
+        <v>439091.3147546201</v>
       </c>
       <c r="E6" t="n">
-        <v>330332.8609344182</v>
+        <v>330161.0035617527</v>
       </c>
       <c r="F6" t="n">
-        <v>449326.471074998</v>
+        <v>449154.613702332</v>
       </c>
       <c r="G6" t="n">
         <v>423027.0953427894</v>
       </c>
       <c r="H6" t="n">
+        <v>469086.0226905202</v>
+      </c>
+      <c r="I6" t="n">
         <v>469086.0226905199</v>
       </c>
-      <c r="I6" t="n">
-        <v>469086.0226905198</v>
-      </c>
       <c r="J6" t="n">
-        <v>245464.4357184323</v>
+        <v>245401.1197618325</v>
       </c>
       <c r="K6" t="n">
-        <v>457276.9513121862</v>
+        <v>457213.6353555879</v>
       </c>
       <c r="L6" t="n">
         <v>397139.7094029224</v>
       </c>
       <c r="M6" t="n">
-        <v>450363.7518840152</v>
+        <v>450363.7518840153</v>
       </c>
       <c r="N6" t="n">
-        <v>469946.4535682491</v>
+        <v>469946.453568249</v>
       </c>
       <c r="O6" t="n">
-        <v>427903.5964417409</v>
+        <v>427886.3737563692</v>
       </c>
       <c r="P6" t="n">
-        <v>467973.0064260441</v>
+        <v>467955.7837406722</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I2" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J2" t="n">
         <v>113.4301655082087</v>
@@ -26808,7 +26808,7 @@
         <v>619.9165945291056</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291056</v>
+        <v>619.916594529106</v>
       </c>
       <c r="J4" t="n">
         <v>760.463453835252</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466328</v>
+        <v>57.5736591846632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354545</v>
+        <v>55.85650632354555</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361961</v>
+        <v>85.79418171361952</v>
       </c>
       <c r="M2" t="n">
         <v>24.47837710529188</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037911</v>
+        <v>50.08676248037924</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260715</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466328</v>
+        <v>57.5736591846632</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354545</v>
+        <v>55.85650632354555</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92620862152472</v>
+        <v>31.13474340424722</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.71405460462789</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>97.70521939144515</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.9285757277203</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27546,16 +27546,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>25.5553162596275</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27588,7 +27588,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27616,25 +27616,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>397.9553953376347</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>166.0381764363851</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>95.04510929489157</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>40.61156201164417</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>3.020411747185307</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -27822,7 +27822,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146329</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1494593605016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>108.2594887509471</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>100.3009154576836</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28114,7 +28114,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
-        <v>10.64205129852448</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>34.34031316762847</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19.98842208488992</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>28.50045832572567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28351,28 +28351,28 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
-        <v>10.64205129852448</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>34.34031316762832</v>
       </c>
       <c r="P14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>87.68688454172955</v>
       </c>
       <c r="H15" t="n">
-        <v>19.98842208488992</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L16" t="n">
-        <v>113.4301655082087</v>
+        <v>113.4301655082086</v>
       </c>
       <c r="M16" t="n">
         <v>113.4301655082087</v>
@@ -28527,7 +28527,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.4301655082084</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R16" t="n">
         <v>113.4301655082087</v>
@@ -28561,43 +28561,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J17" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>122.3550639456159</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.3550639456155</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="S17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>87.68688454172963</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28691,7 +28691,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.68688454172963</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.944766807331717</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.09673474017886</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="20">
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J20" t="n">
-        <v>171.003824692872</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>171.003824692872</v>
+        <v>32.6231603065103</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="R20" t="n">
-        <v>122.3550639456151</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y20" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="21">
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>19.98842208489032</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>28.50045832572619</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>155.4859410478459</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.944766807331717</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="D23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="E23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="F23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="G23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="H23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="I23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29074,37 +29074,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="P23" t="n">
-        <v>122.3550639456157</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>171.003824692872</v>
+        <v>32.62316030651175</v>
       </c>
       <c r="R23" t="n">
-        <v>171.003824692872</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>87.68688454172998</v>
+        <v>87.68688454172865</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>42.09673474017955</v>
       </c>
       <c r="R25" t="n">
-        <v>151.9713303790966</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="T25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="U25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="V25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="W25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="X25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.003824692872</v>
+        <v>171.0038246928719</v>
       </c>
     </row>
     <row r="26">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29606,10 +29606,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I30" t="n">
-        <v>14.56549128550358</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082087</v>
+        <v>113.430165508209</v>
       </c>
       <c r="K31" t="n">
         <v>113.4301655082087</v>
@@ -29706,7 +29706,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
-        <v>113.430165508209</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P31" t="n">
         <v>113.4301655082087</v>
@@ -29773,16 +29773,16 @@
         <v>141.6506880371651</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>141.6506880371651</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>63.69544852598483</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>141.6506880371651</v>
-      </c>
-      <c r="N32" t="n">
-        <v>63.6954485259846</v>
       </c>
       <c r="O32" t="n">
         <v>141.6506880371651</v>
@@ -29791,7 +29791,7 @@
         <v>141.6506880371651</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371651</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>141.6506880371651</v>
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29934,16 +29934,16 @@
         <v>141.6506880371651</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>65.83509871384258</v>
+      </c>
+      <c r="O34" t="n">
         <v>141.6506880371651</v>
-      </c>
-      <c r="M34" t="n">
-        <v>65.8350987138426</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30007,22 +30007,22 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>116.9787331327005</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="K35" t="n">
-        <v>40.58157162934944</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>166.1290651424569</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30165,7 +30165,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
-        <v>106.142283029922</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30244,31 +30244,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>116.9787331327007</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>40.58157162934873</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550415</v>
       </c>
       <c r="I39" t="n">
-        <v>14.56549128550415</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.36703200300073</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,7 +30481,7 @@
         <v>160.3593212992906</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>160.3593212992906</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30493,19 +30493,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>128.5182208190338</v>
+      </c>
+      <c r="Q41" t="n">
         <v>160.3593212992906</v>
       </c>
-      <c r="O41" t="n">
-        <v>160.3593212992906</v>
-      </c>
-      <c r="P41" t="n">
-        <v>57.8908031588486</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
-        <v>160.3593212992906</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>160.3593212992906</v>
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695555</v>
       </c>
       <c r="G43" t="n">
         <v>160.3593212992906</v>
@@ -30639,10 +30639,10 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J43" t="n">
-        <v>160.3593212992906</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>4.651891872110163</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>136.6957712592046</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30721,13 +30721,13 @@
         <v>160.3593212992906</v>
       </c>
       <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>160.3593212992906</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
       <c r="M44" t="n">
-        <v>57.89080315884837</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,13 +30736,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.5182208190338</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.3593212992906</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>160.3593212992906</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.56549128550373</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30870,7 +30870,7 @@
         <v>160.3593212992906</v>
       </c>
       <c r="H46" t="n">
-        <v>160.3593212992906</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -30879,7 +30879,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
-        <v>102.9741444406601</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>105.5545469714317</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>308.0854388614484</v>
+        <v>296.1996408714305</v>
       </c>
       <c r="P2" t="n">
-        <v>123.1895987468669</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>498.2115702199254</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>305.147393207775</v>
+        <v>256.7896726376019</v>
       </c>
       <c r="Q3" t="n">
-        <v>17.23644817681559</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>195.9154010426302</v>
       </c>
       <c r="Q5" t="n">
-        <v>60.84000430574527</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,10 +35024,10 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>356.0827357850295</v>
+        <v>20.78394361225689</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
         <v>305.147393207775</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
-        <v>253.2080836669919</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35422,16 +35422,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696572</v>
       </c>
       <c r="P11" t="n">
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>129.7264280025143</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>321.5555127232766</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.75922888635041</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>253.2080836669919</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>342.4257520290768</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>157.2025852243253</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35735,7 +35735,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>441.8238918535508</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35808,7 +35808,7 @@
         <v>147.373789492697</v>
       </c>
       <c r="L16" t="n">
-        <v>215.0534780337234</v>
+        <v>215.0534780337233</v>
       </c>
       <c r="M16" t="n">
         <v>232.615525233059</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536056</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.7296269886353</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>413.5698570613395</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363951</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>504.5079515089652</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35905,7 +35905,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>32.62316030651035</v>
+        <v>81.27192105376676</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>230.5413394824142</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635041</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,10 +36057,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>67.54929582565272</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.944766807331009</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>243.7296269886353</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>413.5698570613395</v>
+        <v>275.1891926749777</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.2151037363951</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36139,10 +36139,10 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>266.3899395277578</v>
       </c>
       <c r="R20" t="n">
-        <v>32.62316030650989</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>218.0653595001897</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36209,7 +36209,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>441.8238918535503</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36258,7 +36258,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.944766807331024</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271301</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.7296269886352</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543204</v>
       </c>
       <c r="P23" t="n">
-        <v>352.8165755173866</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>266.3899395277579</v>
+        <v>128.0092751413976</v>
       </c>
       <c r="R23" t="n">
-        <v>81.27192105376685</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>294.9109615979885</v>
+        <v>294.9109615979899</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>3.944766807331698</v>
       </c>
       <c r="R25" t="n">
-        <v>3.944766807331009</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823973</v>
+        <v>53.97349930823996</v>
       </c>
       <c r="K31" t="n">
         <v>147.373789492697</v>
@@ -37002,7 +37002,7 @@
         <v>233.0486925280071</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8883942917339</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
         <v>177.0346945265297</v>
@@ -37069,16 +37069,16 @@
         <v>214.3764903329283</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5660323684674</v>
+        <v>384.2167204056325</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>415.0948152784558</v>
       </c>
       <c r="M32" t="n">
-        <v>538.8619670806883</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>445.8483360893338</v>
+        <v>523.8035756005143</v>
       </c>
       <c r="O32" t="n">
         <v>449.7361268986135</v>
@@ -37087,7 +37087,7 @@
         <v>372.112199608936</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720509</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>51.91878439805987</v>
@@ -37230,16 +37230,16 @@
         <v>175.5943120216534</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2740005626797</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>185.0204584386928</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>185.4536257336409</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.10891682069</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>359.5447655011679</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37318,7 +37318,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
         <v>396.5905767142278</v>
@@ -37327,7 +37327,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.68561682995298</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>33.9436239844883</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>119.1853597248502</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>359.5447655011682</v>
       </c>
       <c r="L38" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0430832011197</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233488</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789106</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.215064070152879</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>72.72580229576329</v>
+        <v>233.0851235950539</v>
       </c>
       <c r="K41" t="n">
         <v>242.5660323684674</v>
@@ -37789,19 +37789,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>542.5122088626398</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>468.4447601607391</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>288.3523147306195</v>
+        <v>358.9797323908047</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>255.7454361341765</v>
       </c>
       <c r="R41" t="n">
-        <v>70.62741766018542</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7.010743645074847</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.9026550993216</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>38.59551585659846</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.54380332635674</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>233.0851235950539</v>
       </c>
       <c r="K44" t="n">
-        <v>402.925353667758</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>511.7586880517616</v>
       </c>
       <c r="M44" t="n">
-        <v>455.1020822023715</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
         <v>382.1528875633492</v>
@@ -38032,13 +38032,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.9797323908047</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.62741766018542</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
         <v>231.8086389496855</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.580402530771693</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>136.9177684251484</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
         <v>101.6233125255146</v>
@@ -38187,7 +38187,7 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>205.0127757549566</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
